--- a/Excel/CarPositivecredit.xlsx
+++ b/Excel/CarPositivecredit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
   <si>
     <t>Username</t>
   </si>
@@ -75,9 +75,6 @@
     <t>28</t>
   </si>
   <si>
-    <t>OCT</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
@@ -240,12 +237,6 @@
     <t>Nov</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>QWERG</t>
   </si>
   <si>
@@ -313,6 +304,60 @@
   </si>
   <si>
     <t>MR. FIXED AGENT 02</t>
+  </si>
+  <si>
+    <t>ProjectNumberAP</t>
+  </si>
+  <si>
+    <t>DepartmentAP</t>
+  </si>
+  <si>
+    <t>MajorClassAP</t>
+  </si>
+  <si>
+    <t>TravelStatusAP</t>
+  </si>
+  <si>
+    <t>TotalSavingCodeAP</t>
+  </si>
+  <si>
+    <t>GroupTravelIndicatorAP</t>
+  </si>
+  <si>
+    <t>TourCodeAP</t>
+  </si>
+  <si>
+    <t>EndorsementRestrictAP</t>
+  </si>
+  <si>
+    <t>FareCalculationAreaAP</t>
+  </si>
+  <si>
+    <t>IntlSalesIndicatorAP</t>
+  </si>
+  <si>
+    <t>Customerdetails</t>
+  </si>
+  <si>
+    <t>910292039</t>
+  </si>
+  <si>
+    <t>TESTT</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>QWERS</t>
+  </si>
+  <si>
+    <t>AE Branch 01 - Dubai</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -691,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BE15" sqref="BE15"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -746,9 +791,20 @@
     <col min="55" max="55" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="56" max="58" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="19" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:70">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,139 +851,172 @@
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="X1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="AB1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="AG1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AU1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="AV1" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AW1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="BA1" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BB1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BE1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="BJ1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:70">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -941,169 +1030,202 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="N2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="W2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="AB2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="AG2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AM2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AU2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="AV2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AW2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="AZ2" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="BA2" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="BD2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="BH2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR2" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CarPositivecredit.xlsx
+++ b/Excel/CarPositivecredit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>Username</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Bookingexecutive</t>
   </si>
   <si>
-    <t>BU111 - Mr.Comp 1 Branch 1 User 1</t>
-  </si>
-  <si>
     <t>Salesexecutive</t>
   </si>
   <si>
@@ -358,6 +355,15 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Carcopytickect</t>
+  </si>
+  <si>
+    <t>9920010281</t>
+  </si>
+  <si>
+    <t>Mr.Comp 1 Branch 1  User 1</t>
   </si>
 </sst>
 </file>
@@ -736,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR2"/>
+  <dimension ref="A1:BS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BB3" sqref="BB3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,7 +810,7 @@
     <col min="71" max="71" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:71">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,160 +869,163 @@
         <v>30</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="X1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="AB1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="AG1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AU1" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AV1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="AX1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AX1" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="AY1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AZ1" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="BA1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BC1" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="BD1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BG1" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="BH1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BR1" s="2" t="s">
-        <v>106</v>
+      <c r="BS1" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:71">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>19</v>
@@ -1072,16 +1081,16 @@
         <v>29</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>19</v>
@@ -1090,58 +1099,58 @@
         <v>21</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="AB2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AF2" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="AG2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="AN2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ2" s="7" t="s">
         <v>19</v>
@@ -1150,37 +1159,37 @@
         <v>29</v>
       </c>
       <c r="AS2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AU2" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="AV2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AW2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="BA2" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BD2" s="8" t="s">
         <v>29</v>
@@ -1192,40 +1201,43 @@
         <v>29</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BH2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="BI2" s="9" t="s">
+      <c r="BJ2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="BJ2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK2" s="9" t="s">
+      <c r="BL2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BL2" s="9" t="s">
+      <c r="BM2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="BM2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BN2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR2" s="6" t="s">
-        <v>111</v>
+      <c r="BS2" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CarPositivecredit.xlsx
+++ b/Excel/CarPositivecredit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
   <si>
     <t>Username</t>
   </si>
@@ -363,7 +363,10 @@
     <t>9920010281</t>
   </si>
   <si>
-    <t>Mr.Comp 1 Branch 1  User 1</t>
+    <t>Mr.Comp 1</t>
+  </si>
+  <si>
+    <t>Mr.Comp 1 Branch 1</t>
   </si>
 </sst>
 </file>
@@ -745,7 +748,7 @@
   <dimension ref="A1:BS2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1084,7 +1087,7 @@
         <v>115</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U2" s="7" t="s">
         <v>35</v>
